--- a/ARTool/MATLAB2018A/LockgMgr.xlsx
+++ b/ARTool/MATLAB2018A/LockgMgr.xlsx
@@ -5,17 +5,19 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitHub\ARTool\ARTool\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitHub\ARTool\ARTool\MATLAB2018A\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF0BB23D-AD58-423C-88A0-B0A344511E90}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECADA14B-F9CB-45A5-96BE-68FD7234D9C9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="List" sheetId="4" r:id="rId1"/>
     <sheet name="SWC1" sheetId="3" r:id="rId2"/>
     <sheet name="SWC1_CalibrationData" sheetId="2" r:id="rId3"/>
+    <sheet name="SWC2" sheetId="5" r:id="rId4"/>
+    <sheet name="SWC2_CalibrationData" sheetId="6" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'SWC1'!$A$1:$R$9</definedName>
@@ -137,7 +139,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="58">
   <si>
     <t>Status</t>
   </si>
@@ -334,13 +336,16 @@
   </si>
   <si>
     <t>\</t>
+  </si>
+  <si>
+    <t>SWC2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -398,6 +403,14 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="7">
     <fill>
@@ -437,7 +450,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="20">
+  <borders count="22">
     <border>
       <left/>
       <right/>
@@ -678,11 +691,38 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -770,8 +810,21 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="7" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="9" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="20" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="21" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="11">
@@ -1130,8 +1183,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E807D9E3-44C7-4FCB-88AE-D19F5A7CF53B}">
   <dimension ref="A1:M38"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="L17" sqref="L17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1337,16 +1390,16 @@
       <c r="L13" s="21"/>
       <c r="M13" s="22"/>
     </row>
-    <row r="14" spans="1:13" ht="15.75" thickBot="1">
+    <row r="14" spans="1:13">
       <c r="A14" s="20"/>
       <c r="B14" s="21"/>
       <c r="C14" s="28"/>
       <c r="D14" s="29"/>
       <c r="E14" s="36"/>
-      <c r="F14" s="40" t="s">
+      <c r="F14" s="43" t="s">
         <v>46</v>
       </c>
-      <c r="G14" s="41"/>
+      <c r="G14" s="44"/>
       <c r="H14" s="29"/>
       <c r="I14" s="29"/>
       <c r="J14" s="30"/>
@@ -1360,8 +1413,10 @@
       <c r="C15" s="28"/>
       <c r="D15" s="29"/>
       <c r="E15" s="36"/>
-      <c r="F15" s="28"/>
-      <c r="G15" s="30"/>
+      <c r="F15" s="45" t="s">
+        <v>57</v>
+      </c>
+      <c r="G15" s="46"/>
       <c r="H15" s="29"/>
       <c r="I15" s="29"/>
       <c r="J15" s="30"/>
@@ -1715,11 +1770,16 @@
       <c r="M38" s="25"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="F14:G14"/>
     <mergeCell ref="D7:I7"/>
+    <mergeCell ref="F15:G15"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="F14:G14" location="'SWC1'!A1" display="SWC1" xr:uid="{17D583A9-C596-4ED9-BE92-C08BCB7C3162}"/>
+    <hyperlink ref="F15:G15" location="'SWC2'!A1" display="SWC2" xr:uid="{0DB60CA9-C165-418B-8E4A-4A35D58545BF}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1728,9 +1788,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:S10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I16" sqref="I16"/>
+      <selection pane="bottomLeft" activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -2517,4 +2577,30 @@
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60107FD1-F0EF-4DEA-8FD2-89136DAACA41}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CB269AC-0CEE-4625-B922-6F5700A7A57D}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M31" sqref="M31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>